--- a/DOCS/DIPLOM_RESEARCH.xlsx
+++ b/DOCS/DIPLOM_RESEARCH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Diplom\diplom\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639CE8C3-B04B-468F-B3C8-2916E20F1708}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8646FE-67BD-4DEC-8F07-3EEB2F0B6ABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{CF2FB1F5-F3DC-4A68-B91E-73F4079129EC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{CF2FB1F5-F3DC-4A68-B91E-73F4079129EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -8974,37 +8974,37 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="2000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1600" b="0">
+              <a:rPr lang="ru-RU" sz="2000" b="0">
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
               <a:t>Зміна</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1600" b="0" baseline="0">
+              <a:rPr lang="ru-RU" sz="2000" b="0" baseline="0">
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="0" baseline="0">
+              <a:rPr lang="en-US" sz="2000" b="0" baseline="0">
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
               <a:t>FPS </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1600" b="0" baseline="0">
+              <a:rPr lang="ru-RU" sz="2000" b="0" baseline="0">
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
               <a:t>з 10 складними моделями</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1600" b="0">
+            <a:endParaRPr lang="ru-RU" sz="2000" b="0">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:endParaRPr>
@@ -10908,6 +10908,4548 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Зміна</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="uk-UA" sz="1600" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>пам'яті графічної карти</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>з 10 простими моделями</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1600" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14270557646891216"/>
+          <c:y val="0.11628554600609566"/>
+          <c:w val="0.67580671674913284"/>
+          <c:h val="0.76750067189313753"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>OpenGL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист6!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист6!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>79648</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79636</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79636</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79636</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79636</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79636</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79648</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>79640</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-591E-41C3-B5F1-0671DAD876A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Vulkan</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100">
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист6!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист6!$G$2:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>99272</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99268</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99224</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99268</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99268</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99268</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99272</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-591E-41C3-B5F1-0671DAD876A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="798323839"/>
+        <c:axId val="787271983"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="798323839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Кількість</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> ядер процесору</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1400" b="0">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="787271983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="787271983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Кількість</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> пам'яті у кілобайтах</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1400" b="0">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="798323839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79946442969138665"/>
+          <c:y val="0.40578740157480314"/>
+          <c:w val="0.19495651278884257"/>
+          <c:h val="0.19768445610965296"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Зміна</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> пам'яті графічної карти</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>з 100 простими моделями</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1600" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14270557646891216"/>
+          <c:y val="0.11628554600609566"/>
+          <c:w val="0.67580671674913284"/>
+          <c:h val="0.76750067189313753"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>OpenGL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист6!$B$13:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист6!$D$13:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>79636</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79648</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79648</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79636</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79636</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79648</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79648</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>79632</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-07C8-4DDA-9409-A0ACE59CDF91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Vulkan</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100">
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист6!$B$13:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист6!$G$13:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>105448</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105404</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105448</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105404</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105448</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105440</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>105428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-07C8-4DDA-9409-A0ACE59CDF91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="798323839"/>
+        <c:axId val="787271983"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="798323839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Кількість</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> ядер процесору</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1400" b="0">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="787271983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="787271983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Кількість пам'яті у кілобайтах</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="798323839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79946442969138665"/>
+          <c:y val="0.40578740157480314"/>
+          <c:w val="0.19495651278884257"/>
+          <c:h val="0.19768445610965296"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Зміна</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> пам'яті графічної карти</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>з 500 простими моделями</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1600" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14270557646891216"/>
+          <c:y val="0.11628554600609566"/>
+          <c:w val="0.67580671674913284"/>
+          <c:h val="0.76750067189313753"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>OpenGL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист6!$B$24:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист6!$D$24:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>81684</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81684</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81684</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81684</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81696</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81684</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81680</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B06C-461D-A6C5-40615CBAE930}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Vulkan</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100">
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист6!$B$24:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист6!$G$24:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>107476</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>107468</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>107468</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>107468</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107472</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>107520</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>107520</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107504</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B06C-461D-A6C5-40615CBAE930}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="798323839"/>
+        <c:axId val="787271983"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="798323839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Кількість</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> ядер процесору</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1400" b="0">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="787271983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="787271983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Кількість пам'яті у кілобайтах</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="798323839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79946442969138665"/>
+          <c:y val="0.40578740157480314"/>
+          <c:w val="0.19495651278884257"/>
+          <c:h val="0.19768445610965296"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Зміна</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> пам'яті графічної карти</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>з 10 складними моделями</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1600" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14270557646891216"/>
+          <c:y val="0.11628554600609566"/>
+          <c:w val="0.67580671674913284"/>
+          <c:h val="0.76750067189313753"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>OpenGL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист6!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист6!$K$2:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>223360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>223388</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>223376</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>223380</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>223368</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>223364</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>223364</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>223352</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-28DE-4FF9-AD30-3A825922BC8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Vulkan</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100">
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист6!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист6!$N$2:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>241952</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>241948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>241904</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>241896</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>241944</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>241936</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>241948</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>241956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-28DE-4FF9-AD30-3A825922BC8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="798323839"/>
+        <c:axId val="787271983"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="798323839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Кількість</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> ядер процесору</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1400" b="0">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="787271983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="787271983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Кількість пам'яті у кілобайтах</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="798323839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79946442969138665"/>
+          <c:y val="0.40578740157480314"/>
+          <c:w val="0.19495651278884257"/>
+          <c:h val="0.19768445610965296"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Зміна</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> пам'яті графічної карти</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>з 100 складними моделями</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1600" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14270557646891216"/>
+          <c:y val="0.11628554600609566"/>
+          <c:w val="0.67580671674913284"/>
+          <c:h val="0.76750067189313753"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>OpenGL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист6!$B$13:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист6!$K$13:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>511868</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>511860</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>511880</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>511860</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>511852</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>511864</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>511856</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>511844</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F60A-46A8-87B3-40468135F859}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Vulkan</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100">
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист6!$B$13:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист6!$N$13:$N$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>530358</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>530364</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>530308</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>530328</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>530280</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>530368</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>530360</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>530332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F60A-46A8-87B3-40468135F859}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="798323839"/>
+        <c:axId val="787271983"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="798323839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Кількість</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> ядер процесору</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1400" b="0">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="787271983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="787271983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Кількість пам'яті у кілобайтах</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="798323839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79946442969138665"/>
+          <c:y val="0.40578740157480314"/>
+          <c:w val="0.19495651278884257"/>
+          <c:h val="0.19768445610965296"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Зміна</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> пам'яті графічної карти</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>з 500 складними моделями</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1600" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14270557646891216"/>
+          <c:y val="0.11628554600609566"/>
+          <c:w val="0.67580671674913284"/>
+          <c:h val="0.76750067189313753"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>OpenGL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист6!$B$24:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист6!$K$24:$K$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>642636</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>642608</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>642620</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>642616</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>642616</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>642616</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>642632</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>642596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-325F-4AA4-91ED-8D6A60BECDC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Vulkan</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100">
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист6!$B$24:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист6!$N$24:$N$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>660776</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>660724</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>660792</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>660696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>660768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>660764</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>660760</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>660760</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-325F-4AA4-91ED-8D6A60BECDC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="798323839"/>
+        <c:axId val="787271983"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="798323839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Кількість</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> ядер процесору</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1400" b="0">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="787271983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="787271983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Кількість пам'яті у кілобайтах</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="798323839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79946442969138665"/>
+          <c:y val="0.40578740157480314"/>
+          <c:w val="0.19495651278884257"/>
+          <c:h val="0.19768445610965296"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Зміна</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> оперативної </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="uk-UA" sz="1600" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>пам'яті </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>з 10 простими моделями</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1600" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14270557646891216"/>
+          <c:y val="0.11628554600609566"/>
+          <c:w val="0.67580671674913284"/>
+          <c:h val="0.76750067189313753"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>OpenGL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист6!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист6!$E$2:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>38844</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38840</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38832</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38944</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38872</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39280</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38392</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31484</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6360-4543-8679-4589C6E153F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Vulkan</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100">
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист6!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист6!$H$2:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>59376</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58468</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57420</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57260</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56812</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49044</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6360-4543-8679-4589C6E153F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="798323839"/>
+        <c:axId val="787271983"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="798323839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Кількість</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> ядер процесору</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1400" b="0">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="787271983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="787271983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Кількість</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> пам'яті у кілобайтах</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1400" b="0">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="798323839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79946442969138665"/>
+          <c:y val="0.40578740157480314"/>
+          <c:w val="0.19495651278884257"/>
+          <c:h val="0.19768445610965296"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Зміна</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> оперативної пам'яті з 100 простими моделями</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1600" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14270557646891216"/>
+          <c:y val="0.11628554600609566"/>
+          <c:w val="0.67580671674913284"/>
+          <c:h val="0.76750067189313753"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>OpenGL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист6!$B$13:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист6!$E$13:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>40148</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40176</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40756</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32656</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3238-44D0-958A-0E0A79BD3CCA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Vulkan</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100">
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист6!$B$13:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист6!$H$13:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>76256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76816</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76540</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68412</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3238-44D0-958A-0E0A79BD3CCA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="798323839"/>
+        <c:axId val="787271983"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="798323839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Кількість</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> ядер процесору</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1400" b="0">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="787271983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="787271983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Кількість пам'яті у кілобайтах</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="798323839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79946442969138665"/>
+          <c:y val="0.40578740157480314"/>
+          <c:w val="0.19495651278884257"/>
+          <c:h val="0.19768445610965296"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Зміна</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> оперативної пам'яті</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>з 500 простими моделями</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1600" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14270557646891216"/>
+          <c:y val="0.11628554600609566"/>
+          <c:w val="0.67580671674913284"/>
+          <c:h val="0.76750067189313753"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>OpenGL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист6!$B$24:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист6!$E$24:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>41448</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41372</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40748</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41448</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41508</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41336</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33080</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA2C-4F81-A4F5-3B3BA79789D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Vulkan</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100">
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист6!$B$24:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист6!$H$24:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>84736</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85160</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77472</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76932</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65628</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BA2C-4F81-A4F5-3B3BA79789D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="798323839"/>
+        <c:axId val="787271983"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="798323839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Кількість</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> ядер процесору</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1400" b="0">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="787271983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="787271983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Кількість пам'яті у кілобайтах</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="798323839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79946442969138665"/>
+          <c:y val="0.40578740157480314"/>
+          <c:w val="0.19495651278884257"/>
+          <c:h val="0.19768445610965296"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -11303,6 +15845,1473 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Зміна</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> оперативної пам'яті з 10 складними моделями</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1600" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14270557646891216"/>
+          <c:y val="0.11628554600609566"/>
+          <c:w val="0.67580671674913284"/>
+          <c:h val="0.76750067189313753"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>OpenGL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист6!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист6!$L$2:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>199976</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>208104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>203960</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>203904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>205188</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>196740</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>195332</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>188768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-38C3-42F5-BD16-AC6D5058CD0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Vulkan</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100">
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист6!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист6!$O$2:$O$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>252816</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>252996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>253304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>252776</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>252184</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>247520</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>252452</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>245324</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-38C3-42F5-BD16-AC6D5058CD0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="798323839"/>
+        <c:axId val="787271983"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="798323839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Кількість</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> ядер процесору</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1400" b="0">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="787271983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="787271983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Кількість пам'яті у кілобайтах</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="798323839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79946442969138665"/>
+          <c:y val="0.40578740157480314"/>
+          <c:w val="0.19495651278884257"/>
+          <c:h val="0.19768445610965296"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Зміна</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> оперативної пам'яті з 100 складними моделями</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1600" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14270557646891216"/>
+          <c:y val="0.11628554600609566"/>
+          <c:w val="0.67580671674913284"/>
+          <c:h val="0.76750067189313753"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>OpenGL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист6!$B$13:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист6!$L$13:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>486492</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>488072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>489164</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>490944</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>492136</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>495544</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>483776</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>490944</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBF0-433E-BD6C-B516CB5573A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Vulkan</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100">
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист6!$B$13:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист6!$O$13:$O$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>665228</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>671836</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>665024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>667076</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>654472</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>681192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>663656</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>649552</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FBF0-433E-BD6C-B516CB5573A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="798323839"/>
+        <c:axId val="787271983"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="798323839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Кількість</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> ядер процесору</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1400" b="0">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="787271983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="787271983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Кількість пам'яті у кілобайтах</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="798323839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79946442969138665"/>
+          <c:y val="0.40578740157480314"/>
+          <c:w val="0.19495651278884257"/>
+          <c:h val="0.19768445610965296"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Зміна</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> оперативної пам'яті з 500 складними моделями</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1600" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14270557646891216"/>
+          <c:y val="0.11628554600609566"/>
+          <c:w val="0.67580671674913284"/>
+          <c:h val="0.76750067189313753"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>OpenGL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист6!$B$24:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист6!$L$24:$L$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>624000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>625128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>620492</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>619788</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>619764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>622500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>629444</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>610924</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7F95-4D59-A7B2-F26450B6C8B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Vulkan</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100">
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист6!$B$24:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист6!$O$24:$O$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>847344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>848680</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>835352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>840936</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>851912</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>832220</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>831908</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>833124</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7F95-4D59-A7B2-F26450B6C8B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="798323839"/>
+        <c:axId val="787271983"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="798323839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Кількість</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> ядер процесору</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1400" b="0">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="787271983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="787271983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Кількість пам'яті у кілобайтах</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="798323839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79946442969138665"/>
+          <c:y val="0.40578740157480314"/>
+          <c:w val="0.19495651278884257"/>
+          <c:h val="0.19768445610965296"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -26178,7 +32187,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>899160</xdr:colOff>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
@@ -27050,6 +33059,462 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Диаграмма 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2925B85F-2EB0-4C0E-AF05-64934F246A72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Диаграмма 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB9651F3-37DA-4E01-97B6-1648C589F96C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Диаграмма 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E497C95-35D7-40B0-8AE2-BE26EA32A875}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Диаграмма 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E76AC32C-2382-43F4-A4DA-8BAB9F993373}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Диаграмма 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B5AB72A-FDBA-496E-906D-4D42881C5522}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Диаграмма 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A58814D8-CD09-426F-96E3-56049C1101E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Диаграмма 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86528FBB-8137-45F6-97D5-EBE607791A03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Диаграмма 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98976A11-7626-46A4-ACA9-495CBDC2A970}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Диаграмма 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11BCE9E8-E5B9-4896-8AD3-EF2CB07FED2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>30481</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Диаграмма 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22A208D7-D427-4548-87F4-F62D847FF5E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>106681</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Диаграмма 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C5630FE-1676-46B4-8F6A-E5833C0031CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Диаграмма 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{858A4C65-CF19-4E86-A0F0-CF2B87D88B45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -27980,8 +34445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1961A088-1CFA-4924-B6CB-02881438E470}">
   <dimension ref="A1:O236"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="F245" sqref="F245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30521,8 +36986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B970567-A06B-4C0D-8F70-5B309C82D692}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView topLeftCell="A166" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AK177" sqref="AK177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
